--- a/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006128</t>
+          <t>169104</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河和美生活主题混合</t>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>41.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3318</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>006128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>银河和美生活主题混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001569</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信国策驱动灵活配置混合</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.97</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007804</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强C</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>001569</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>泰信国策驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>169104</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.38</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>007804</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>申万菱信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005535</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信竞争优选灵活配置混合</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.27</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007804</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强C</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>290006</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰信蓝筹精选混合</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.44</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>88.29</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.20</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>007804</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>申万菱信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83.89</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008909</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008910</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信鑫益混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.07</v>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.37</v>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2239,13 +2326,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2635,7 +2636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,17 +2647,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2666,14 +2687,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.84</v>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2682,14 +2725,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2698,14 +2763,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.07</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -2714,14 +2885,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>1.37</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
@@ -2730,13 +2901,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.37</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688063-派能科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2806,7 +2807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2817,17 +2818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2837,14 +2858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2853,14 +2896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.84</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3603</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2869,14 +2934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8742</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2885,14 +2972,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.07</v>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8179</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2901,14 +3010,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.37</v>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2917,13 +3048,6553 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6435</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2973</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安智能生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1877</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161606</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通行业景气混合A/B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9292</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7590</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安成长创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6238</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6209</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>470028</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5716</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5526</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5264</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4354</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4065</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4052</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3742</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3100</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010284</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009277</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>融通行业景气混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011127</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国清洁能源产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>580003</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003799</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000841</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华安新泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>000590</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华安新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001485</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>华安添颐混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010285</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长城价值成长六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002398</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>000843</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>富国新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>002399</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华安安禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011240</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>东吴行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>015192</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇添富社会责任混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>174</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.37</v>
       </c>
     </row>
